--- a/Results/Filter/lda2vec-partial-ner.xlsx
+++ b/Results/Filter/lda2vec-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="1669">
   <si>
     <t>id</t>
   </si>
@@ -4045,18 +4045,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4120,7 +4114,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4198,6 +4192,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4348,13 +4345,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4363,7 +4357,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4393,7 +4387,7 @@
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
+    <t>atmosphere|wait</t>
   </si>
   <si>
     <t>dish|reasonable|price</t>
@@ -4408,9 +4402,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4429,7 +4420,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4453,7 +4444,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4498,7 +4489,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4531,7 +4522,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4552,7 +4543,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -4573,9 +4564,6 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing</t>
-  </si>
-  <si>
     <t>seats|wall|benches</t>
   </si>
   <si>
@@ -4615,15 +4603,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -4633,7 +4618,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -4672,13 +4657,10 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
@@ -4750,16 +4732,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -4774,7 +4753,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -4783,7 +4762,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -4819,7 +4798,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -4870,9 +4849,6 @@
     <t>service|dish|price</t>
   </si>
   <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
     <t>dinner|wine</t>
   </si>
   <si>
@@ -4885,7 +4861,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -4909,9 +4885,6 @@
     <t>place|would|feel|restaurant|price</t>
   </si>
   <si>
-    <t>place|food|thing</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -4924,7 +4897,7 @@
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>good|reasonable|thing|great|price</t>
+    <t>good|reasonable|great|price</t>
   </si>
   <si>
     <t>service|rude|well</t>
@@ -5451,7 +5424,7 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5474,7 +5447,7 @@
         <v>932</v>
       </c>
       <c r="G3" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5497,7 +5470,7 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5520,7 +5493,7 @@
         <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5543,7 +5516,7 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5566,7 +5539,7 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5589,7 +5562,7 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5612,7 +5585,7 @@
         <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5635,7 +5608,7 @@
         <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5658,7 +5631,7 @@
         <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5678,10 +5651,10 @@
         <v>1281</v>
       </c>
       <c r="F12" t="s">
-        <v>1345</v>
+        <v>932</v>
       </c>
       <c r="G12" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5701,10 +5674,10 @@
         <v>1277</v>
       </c>
       <c r="F13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G13" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5724,10 +5697,10 @@
         <v>1276</v>
       </c>
       <c r="F14" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G14" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5747,10 +5720,10 @@
         <v>1282</v>
       </c>
       <c r="F15" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G15" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5770,10 +5743,10 @@
         <v>1283</v>
       </c>
       <c r="F16" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G16" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5793,10 +5766,10 @@
         <v>1276</v>
       </c>
       <c r="F17" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5816,10 +5789,10 @@
         <v>1275</v>
       </c>
       <c r="F18" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5842,7 +5815,7 @@
         <v>932</v>
       </c>
       <c r="G19" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5862,10 +5835,10 @@
         <v>1275</v>
       </c>
       <c r="F20" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G20" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5888,7 +5861,7 @@
         <v>1119</v>
       </c>
       <c r="G21" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5911,7 +5884,7 @@
         <v>946</v>
       </c>
       <c r="G22" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5931,10 +5904,10 @@
         <v>1275</v>
       </c>
       <c r="F23" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G23" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5954,10 +5927,10 @@
         <v>1277</v>
       </c>
       <c r="F24" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G24" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5980,7 +5953,7 @@
         <v>946</v>
       </c>
       <c r="G25" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6000,10 +5973,10 @@
         <v>1277</v>
       </c>
       <c r="F26" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G26" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6023,10 +5996,10 @@
         <v>1276</v>
       </c>
       <c r="F27" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G27" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6046,10 +6019,10 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G28" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6069,10 +6042,10 @@
         <v>1278</v>
       </c>
       <c r="F29" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G29" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6092,10 +6065,10 @@
         <v>1283</v>
       </c>
       <c r="F30" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G30" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6115,10 +6088,10 @@
         <v>1285</v>
       </c>
       <c r="F31" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G31" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6138,10 +6111,10 @@
         <v>1285</v>
       </c>
       <c r="F32" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G32" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6161,10 +6134,10 @@
         <v>1277</v>
       </c>
       <c r="F33" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G33" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6184,10 +6157,10 @@
         <v>1283</v>
       </c>
       <c r="F34" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G34" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6207,10 +6180,10 @@
         <v>1286</v>
       </c>
       <c r="F35" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G35" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6230,10 +6203,10 @@
         <v>1275</v>
       </c>
       <c r="F36" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G36" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6256,7 +6229,7 @@
         <v>1338</v>
       </c>
       <c r="G37" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6276,10 +6249,10 @@
         <v>1277</v>
       </c>
       <c r="F38" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G38" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6299,10 +6272,10 @@
         <v>1284</v>
       </c>
       <c r="F39" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G39" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6322,10 +6295,10 @@
         <v>1284</v>
       </c>
       <c r="F40" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G40" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6345,10 +6318,10 @@
         <v>1279</v>
       </c>
       <c r="F41" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G41" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6368,10 +6341,10 @@
         <v>1277</v>
       </c>
       <c r="F42" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G42" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6391,10 +6364,10 @@
         <v>1284</v>
       </c>
       <c r="F43" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G43" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6417,7 +6390,7 @@
         <v>967</v>
       </c>
       <c r="G44" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6440,7 +6413,7 @@
         <v>932</v>
       </c>
       <c r="G45" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6460,10 +6433,10 @@
         <v>1288</v>
       </c>
       <c r="F46" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G46" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6486,7 +6459,7 @@
         <v>988</v>
       </c>
       <c r="G47" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6506,10 +6479,10 @@
         <v>1278</v>
       </c>
       <c r="F48" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G48" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6529,10 +6502,10 @@
         <v>1281</v>
       </c>
       <c r="F49" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G49" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6552,10 +6525,10 @@
         <v>1277</v>
       </c>
       <c r="F50" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G50" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6575,10 +6548,10 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G51" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6598,10 +6571,10 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G52" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6621,10 +6594,10 @@
         <v>1276</v>
       </c>
       <c r="F53" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G53" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6644,10 +6617,10 @@
         <v>1276</v>
       </c>
       <c r="F54" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G54" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6667,10 +6640,10 @@
         <v>1289</v>
       </c>
       <c r="F55" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G55" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6690,10 +6663,10 @@
         <v>1290</v>
       </c>
       <c r="F56" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G56" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6713,10 +6686,10 @@
         <v>1275</v>
       </c>
       <c r="F57" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G57" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6736,10 +6709,10 @@
         <v>1278</v>
       </c>
       <c r="F58" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G58" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6759,10 +6732,10 @@
         <v>1291</v>
       </c>
       <c r="F59" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G59" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6785,7 +6758,7 @@
         <v>1341</v>
       </c>
       <c r="G60" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6808,7 +6781,7 @@
         <v>932</v>
       </c>
       <c r="G61" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6828,10 +6801,10 @@
         <v>1289</v>
       </c>
       <c r="F62" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G62" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6851,10 +6824,10 @@
         <v>1275</v>
       </c>
       <c r="F63" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G63" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6874,10 +6847,10 @@
         <v>1277</v>
       </c>
       <c r="F64" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="G64" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6897,10 +6870,10 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G65" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6920,10 +6893,10 @@
         <v>1275</v>
       </c>
       <c r="F66" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G66" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6943,10 +6916,10 @@
         <v>1292</v>
       </c>
       <c r="F67" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G67" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6969,7 +6942,7 @@
         <v>988</v>
       </c>
       <c r="G68" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6989,10 +6962,10 @@
         <v>1294</v>
       </c>
       <c r="F69" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G69" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7012,10 +6985,10 @@
         <v>1277</v>
       </c>
       <c r="F70" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G70" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7038,7 +7011,7 @@
         <v>932</v>
       </c>
       <c r="G71" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7058,10 +7031,10 @@
         <v>1295</v>
       </c>
       <c r="F72" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G72" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7081,10 +7054,10 @@
         <v>1275</v>
       </c>
       <c r="F73" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G73" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7104,10 +7077,10 @@
         <v>1283</v>
       </c>
       <c r="F74" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G74" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7130,7 +7103,7 @@
         <v>984</v>
       </c>
       <c r="G75" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7150,10 +7123,10 @@
         <v>1284</v>
       </c>
       <c r="F76" t="s">
-        <v>994</v>
+        <v>1392</v>
       </c>
       <c r="G76" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7173,10 +7146,10 @@
         <v>1277</v>
       </c>
       <c r="F77" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G77" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7196,10 +7169,10 @@
         <v>1288</v>
       </c>
       <c r="F78" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G78" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7219,10 +7192,10 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G79" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7242,10 +7215,10 @@
         <v>1276</v>
       </c>
       <c r="F80" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G80" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7265,10 +7238,10 @@
         <v>1277</v>
       </c>
       <c r="F81" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G81" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7288,10 +7261,10 @@
         <v>1296</v>
       </c>
       <c r="F82" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G82" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7314,7 +7287,7 @@
         <v>932</v>
       </c>
       <c r="G83" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7337,7 +7310,7 @@
         <v>999</v>
       </c>
       <c r="G84" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7357,10 +7330,10 @@
         <v>1281</v>
       </c>
       <c r="F85" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G85" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7380,10 +7353,10 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G86" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7403,10 +7376,10 @@
         <v>1284</v>
       </c>
       <c r="F87" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G87" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7426,10 +7399,10 @@
         <v>1283</v>
       </c>
       <c r="F88" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G88" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7449,10 +7422,10 @@
         <v>1277</v>
       </c>
       <c r="F89" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G89" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7475,7 +7448,7 @@
         <v>967</v>
       </c>
       <c r="G90" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7495,10 +7468,10 @@
         <v>1285</v>
       </c>
       <c r="F91" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G91" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7518,10 +7491,10 @@
         <v>1298</v>
       </c>
       <c r="F92" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G92" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7541,10 +7514,10 @@
         <v>1276</v>
       </c>
       <c r="F93" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G93" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7564,10 +7537,10 @@
         <v>1288</v>
       </c>
       <c r="F94" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G94" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7587,10 +7560,10 @@
         <v>1299</v>
       </c>
       <c r="F95" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G95" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7610,10 +7583,10 @@
         <v>1277</v>
       </c>
       <c r="F96" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G96" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7633,10 +7606,10 @@
         <v>1276</v>
       </c>
       <c r="F97" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G97" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7659,7 +7632,7 @@
         <v>1341</v>
       </c>
       <c r="G98" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7679,10 +7652,10 @@
         <v>1278</v>
       </c>
       <c r="F99" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G99" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7702,10 +7675,10 @@
         <v>1278</v>
       </c>
       <c r="F100" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G100" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7728,7 +7701,7 @@
         <v>1344</v>
       </c>
       <c r="G101" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7748,10 +7721,10 @@
         <v>1284</v>
       </c>
       <c r="F102" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G102" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7771,10 +7744,10 @@
         <v>1284</v>
       </c>
       <c r="F103" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G103" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7794,10 +7767,10 @@
         <v>1276</v>
       </c>
       <c r="F104" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G104" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7820,7 +7793,7 @@
         <v>930</v>
       </c>
       <c r="G105" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7840,10 +7813,10 @@
         <v>1285</v>
       </c>
       <c r="F106" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G106" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7863,10 +7836,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G107" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7886,10 +7859,10 @@
         <v>1295</v>
       </c>
       <c r="F108" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G108" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7912,7 +7885,7 @@
         <v>1344</v>
       </c>
       <c r="G109" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7932,10 +7905,10 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G110" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7955,10 +7928,10 @@
         <v>1277</v>
       </c>
       <c r="F111" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G111" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7978,10 +7951,10 @@
         <v>1276</v>
       </c>
       <c r="F112" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G112" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8004,7 +7977,7 @@
         <v>1064</v>
       </c>
       <c r="G113" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8027,7 +8000,7 @@
         <v>946</v>
       </c>
       <c r="G114" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8047,10 +8020,10 @@
         <v>1295</v>
       </c>
       <c r="F115" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G115" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8070,10 +8043,10 @@
         <v>1276</v>
       </c>
       <c r="F116" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G116" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8093,10 +8066,10 @@
         <v>1277</v>
       </c>
       <c r="F117" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G117" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8116,10 +8089,10 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G118" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8139,10 +8112,10 @@
         <v>1277</v>
       </c>
       <c r="F119" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G119" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8165,7 +8138,7 @@
         <v>967</v>
       </c>
       <c r="G120" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8188,7 +8161,7 @@
         <v>946</v>
       </c>
       <c r="G121" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8211,7 +8184,7 @@
         <v>930</v>
       </c>
       <c r="G122" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8234,7 +8207,7 @@
         <v>932</v>
       </c>
       <c r="G123" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8254,10 +8227,10 @@
         <v>1277</v>
       </c>
       <c r="F124" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G124" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8277,10 +8250,10 @@
         <v>1277</v>
       </c>
       <c r="F125" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G125" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8303,7 +8276,7 @@
         <v>999</v>
       </c>
       <c r="G126" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8326,7 +8299,7 @@
         <v>1344</v>
       </c>
       <c r="G127" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8346,10 +8319,10 @@
         <v>1275</v>
       </c>
       <c r="F128" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G128" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8369,10 +8342,10 @@
         <v>1276</v>
       </c>
       <c r="F129" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G129" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8392,10 +8365,10 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G130" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8415,10 +8388,10 @@
         <v>1297</v>
       </c>
       <c r="F131" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G131" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8438,10 +8411,10 @@
         <v>1275</v>
       </c>
       <c r="F132" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G132" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8461,10 +8434,10 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G133" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8484,10 +8457,10 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G134" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8510,7 +8483,7 @@
         <v>1064</v>
       </c>
       <c r="G135" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8530,10 +8503,10 @@
         <v>1277</v>
       </c>
       <c r="F136" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G136" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8553,10 +8526,10 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G137" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8576,10 +8549,10 @@
         <v>1275</v>
       </c>
       <c r="F138" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G138" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8599,10 +8572,10 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G139" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8622,10 +8595,10 @@
         <v>1281</v>
       </c>
       <c r="F140" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G140" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8648,7 +8621,7 @@
         <v>1049</v>
       </c>
       <c r="G141" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8668,10 +8641,10 @@
         <v>1277</v>
       </c>
       <c r="F142" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G142" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8691,10 +8664,10 @@
         <v>1283</v>
       </c>
       <c r="F143" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G143" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8714,10 +8687,10 @@
         <v>1276</v>
       </c>
       <c r="F144" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G144" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8740,7 +8713,7 @@
         <v>988</v>
       </c>
       <c r="G145" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8760,10 +8733,10 @@
         <v>1301</v>
       </c>
       <c r="F146" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G146" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8786,7 +8759,7 @@
         <v>930</v>
       </c>
       <c r="G147" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8806,10 +8779,10 @@
         <v>1277</v>
       </c>
       <c r="F148" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G148" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8828,11 +8801,8 @@
       <c r="E149" t="s">
         <v>1276</v>
       </c>
-      <c r="F149" t="s">
-        <v>1444</v>
-      </c>
       <c r="G149" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8852,10 +8822,10 @@
         <v>1275</v>
       </c>
       <c r="F150" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G150" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8878,7 +8848,7 @@
         <v>995</v>
       </c>
       <c r="G151" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8898,10 +8868,10 @@
         <v>1276</v>
       </c>
       <c r="F152" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G152" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8921,10 +8891,10 @@
         <v>1303</v>
       </c>
       <c r="F153" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G153" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8944,10 +8914,10 @@
         <v>1277</v>
       </c>
       <c r="F154" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G154" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8967,10 +8937,10 @@
         <v>1277</v>
       </c>
       <c r="F155" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G155" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8990,10 +8960,10 @@
         <v>1277</v>
       </c>
       <c r="F156" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G156" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9016,7 +8986,7 @@
         <v>1344</v>
       </c>
       <c r="G157" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9036,10 +9006,10 @@
         <v>1284</v>
       </c>
       <c r="F158" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G158" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9059,10 +9029,10 @@
         <v>1284</v>
       </c>
       <c r="F159" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G159" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9082,10 +9052,10 @@
         <v>1284</v>
       </c>
       <c r="F160" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G160" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9108,7 +9078,7 @@
         <v>1061</v>
       </c>
       <c r="G161" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9128,10 +9098,10 @@
         <v>1277</v>
       </c>
       <c r="F162" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G162" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9154,7 +9124,7 @@
         <v>975</v>
       </c>
       <c r="G163" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9174,10 +9144,10 @@
         <v>1278</v>
       </c>
       <c r="F164" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G164" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9197,10 +9167,10 @@
         <v>1285</v>
       </c>
       <c r="F165" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G165" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9220,10 +9190,10 @@
         <v>1277</v>
       </c>
       <c r="F166" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G166" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9243,10 +9213,10 @@
         <v>1278</v>
       </c>
       <c r="F167" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G167" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9266,10 +9236,10 @@
         <v>1304</v>
       </c>
       <c r="F168" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G168" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9289,10 +9259,10 @@
         <v>1299</v>
       </c>
       <c r="F169" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G169" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9312,10 +9282,10 @@
         <v>1305</v>
       </c>
       <c r="F170" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G170" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9335,10 +9305,10 @@
         <v>1275</v>
       </c>
       <c r="F171" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G171" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9358,10 +9328,10 @@
         <v>1276</v>
       </c>
       <c r="F172" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G172" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9381,10 +9351,10 @@
         <v>1295</v>
       </c>
       <c r="F173" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="G173" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9404,10 +9374,10 @@
         <v>1276</v>
       </c>
       <c r="F174" t="s">
-        <v>1464</v>
+        <v>1444</v>
       </c>
       <c r="G174" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9427,10 +9397,10 @@
         <v>1306</v>
       </c>
       <c r="F175" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G175" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9450,10 +9420,10 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G176" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9473,10 +9443,10 @@
         <v>1283</v>
       </c>
       <c r="F177" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="G177" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9496,10 +9466,10 @@
         <v>1307</v>
       </c>
       <c r="F178" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="G178" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9519,10 +9489,10 @@
         <v>1308</v>
       </c>
       <c r="F179" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="G179" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9542,10 +9512,10 @@
         <v>1292</v>
       </c>
       <c r="F180" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="G180" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9565,10 +9535,10 @@
         <v>1276</v>
       </c>
       <c r="F181" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="G181" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9591,7 +9561,7 @@
         <v>988</v>
       </c>
       <c r="G182" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9611,10 +9581,10 @@
         <v>1277</v>
       </c>
       <c r="F183" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G183" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9634,10 +9604,10 @@
         <v>1277</v>
       </c>
       <c r="F184" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="G184" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9657,10 +9627,10 @@
         <v>1309</v>
       </c>
       <c r="F185" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G185" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9680,10 +9650,10 @@
         <v>1284</v>
       </c>
       <c r="F186" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="G186" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9703,10 +9673,10 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G187" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9729,7 +9699,7 @@
         <v>988</v>
       </c>
       <c r="G188" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9749,10 +9719,10 @@
         <v>1299</v>
       </c>
       <c r="F189" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="G189" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9775,7 +9745,7 @@
         <v>932</v>
       </c>
       <c r="G190" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9795,10 +9765,10 @@
         <v>1276</v>
       </c>
       <c r="F191" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G191" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9818,10 +9788,10 @@
         <v>1310</v>
       </c>
       <c r="F192" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G192" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9841,10 +9811,10 @@
         <v>1283</v>
       </c>
       <c r="F193" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="G193" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9864,10 +9834,10 @@
         <v>1277</v>
       </c>
       <c r="F194" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="G194" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9890,7 +9860,7 @@
         <v>967</v>
       </c>
       <c r="G195" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9910,10 +9880,10 @@
         <v>1284</v>
       </c>
       <c r="F196" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="G196" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9936,7 +9906,7 @@
         <v>995</v>
       </c>
       <c r="G197" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9956,10 +9926,10 @@
         <v>1296</v>
       </c>
       <c r="F198" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G198" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9979,10 +9949,10 @@
         <v>1277</v>
       </c>
       <c r="F199" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="G199" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -10002,10 +9972,10 @@
         <v>1277</v>
       </c>
       <c r="F200" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="G200" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10025,10 +9995,10 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="G201" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10048,10 +10018,10 @@
         <v>1308</v>
       </c>
       <c r="F202" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="G202" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -10071,10 +10041,10 @@
         <v>1284</v>
       </c>
       <c r="F203" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="G203" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10094,10 +10064,10 @@
         <v>1311</v>
       </c>
       <c r="F204" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="G204" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10117,10 +10087,10 @@
         <v>1278</v>
       </c>
       <c r="F205" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="G205" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10140,10 +10110,10 @@
         <v>1275</v>
       </c>
       <c r="F206" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="G206" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10166,7 +10136,7 @@
         <v>946</v>
       </c>
       <c r="G207" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10186,10 +10156,10 @@
         <v>1277</v>
       </c>
       <c r="F208" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="G208" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -10212,7 +10182,7 @@
         <v>1045</v>
       </c>
       <c r="G209" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -10232,10 +10202,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="G210" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -10255,10 +10225,10 @@
         <v>1310</v>
       </c>
       <c r="F211" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="G211" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10278,10 +10248,10 @@
         <v>1277</v>
       </c>
       <c r="F212" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="G212" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -10301,10 +10271,10 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G213" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -10324,10 +10294,10 @@
         <v>1295</v>
       </c>
       <c r="F214" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="G214" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -10347,10 +10317,10 @@
         <v>1277</v>
       </c>
       <c r="F215" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="G215" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10373,7 +10343,7 @@
         <v>988</v>
       </c>
       <c r="G216" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10393,10 +10363,10 @@
         <v>1310</v>
       </c>
       <c r="F217" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="G217" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -10416,10 +10386,10 @@
         <v>1280</v>
       </c>
       <c r="F218" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G218" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -10439,10 +10409,10 @@
         <v>1284</v>
       </c>
       <c r="F219" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G219" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10462,10 +10432,10 @@
         <v>1309</v>
       </c>
       <c r="F220" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G220" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10488,7 +10458,7 @@
         <v>946</v>
       </c>
       <c r="G221" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10508,10 +10478,10 @@
         <v>1275</v>
       </c>
       <c r="F222" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G222" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10531,10 +10501,10 @@
         <v>1310</v>
       </c>
       <c r="F223" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="G223" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10554,10 +10524,10 @@
         <v>1313</v>
       </c>
       <c r="F224" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="G224" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10580,7 +10550,7 @@
         <v>1088</v>
       </c>
       <c r="G225" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10603,7 +10573,7 @@
         <v>930</v>
       </c>
       <c r="G226" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10626,7 +10596,7 @@
         <v>1088</v>
       </c>
       <c r="G227" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10646,10 +10616,10 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="G228" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10669,10 +10639,10 @@
         <v>1275</v>
       </c>
       <c r="F229" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="G229" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10692,10 +10662,10 @@
         <v>1293</v>
       </c>
       <c r="F230" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G230" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10718,7 +10688,7 @@
         <v>946</v>
       </c>
       <c r="G231" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10738,10 +10708,10 @@
         <v>1275</v>
       </c>
       <c r="F232" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="G232" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10761,10 +10731,10 @@
         <v>1314</v>
       </c>
       <c r="F233" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G233" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10784,10 +10754,10 @@
         <v>1284</v>
       </c>
       <c r="F234" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="G234" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10807,10 +10777,10 @@
         <v>1299</v>
       </c>
       <c r="F235" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="G235" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10830,10 +10800,10 @@
         <v>1284</v>
       </c>
       <c r="F236" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="G236" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10853,10 +10823,10 @@
         <v>1284</v>
       </c>
       <c r="F237" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="G237" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10876,10 +10846,10 @@
         <v>1315</v>
       </c>
       <c r="F238" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="G238" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10899,10 +10869,10 @@
         <v>1284</v>
       </c>
       <c r="F239" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G239" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10922,10 +10892,10 @@
         <v>1316</v>
       </c>
       <c r="F240" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="G240" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10948,7 +10918,7 @@
         <v>1340</v>
       </c>
       <c r="G241" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10968,10 +10938,10 @@
         <v>1317</v>
       </c>
       <c r="F242" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G242" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10991,10 +10961,10 @@
         <v>1275</v>
       </c>
       <c r="F243" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="G243" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -11014,10 +10984,10 @@
         <v>1275</v>
       </c>
       <c r="F244" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G244" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -11037,10 +11007,10 @@
         <v>1275</v>
       </c>
       <c r="F245" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="G245" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -11063,7 +11033,7 @@
         <v>930</v>
       </c>
       <c r="G246" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -11083,10 +11053,10 @@
         <v>1309</v>
       </c>
       <c r="F247" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G247" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11109,7 +11079,7 @@
         <v>984</v>
       </c>
       <c r="G248" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -11129,10 +11099,10 @@
         <v>1304</v>
       </c>
       <c r="F249" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="G249" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -11152,10 +11122,10 @@
         <v>1278</v>
       </c>
       <c r="F250" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G250" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -11175,10 +11145,10 @@
         <v>1299</v>
       </c>
       <c r="F251" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G251" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -11198,10 +11168,10 @@
         <v>1275</v>
       </c>
       <c r="F252" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G252" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11221,10 +11191,10 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="G253" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11247,7 +11217,7 @@
         <v>946</v>
       </c>
       <c r="G254" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11267,10 +11237,10 @@
         <v>1275</v>
       </c>
       <c r="F255" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="G255" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11290,10 +11260,10 @@
         <v>1278</v>
       </c>
       <c r="F256" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G256" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11313,10 +11283,10 @@
         <v>1285</v>
       </c>
       <c r="F257" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G257" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11336,10 +11306,10 @@
         <v>1278</v>
       </c>
       <c r="F258" t="s">
-        <v>1519</v>
+        <v>1362</v>
       </c>
       <c r="G258" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11362,7 +11332,7 @@
         <v>1064</v>
       </c>
       <c r="G259" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11382,10 +11352,10 @@
         <v>1278</v>
       </c>
       <c r="F260" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G260" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11405,10 +11375,10 @@
         <v>1284</v>
       </c>
       <c r="F261" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="G261" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11431,7 +11401,7 @@
         <v>967</v>
       </c>
       <c r="G262" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11451,10 +11421,10 @@
         <v>1299</v>
       </c>
       <c r="F263" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="G263" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11474,10 +11444,10 @@
         <v>1275</v>
       </c>
       <c r="F264" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="G264" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11497,10 +11467,10 @@
         <v>1310</v>
       </c>
       <c r="F265" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="G265" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11520,10 +11490,10 @@
         <v>1293</v>
       </c>
       <c r="F266" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="G266" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11543,10 +11513,10 @@
         <v>1278</v>
       </c>
       <c r="F267" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="G267" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11566,10 +11536,10 @@
         <v>1285</v>
       </c>
       <c r="F268" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="G268" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11589,10 +11559,10 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="G269" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -11615,7 +11585,7 @@
         <v>984</v>
       </c>
       <c r="G270" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11635,10 +11605,10 @@
         <v>1303</v>
       </c>
       <c r="F271" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="G271" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11658,10 +11628,10 @@
         <v>1285</v>
       </c>
       <c r="F272" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G272" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11681,10 +11651,10 @@
         <v>1278</v>
       </c>
       <c r="F273" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="G273" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11704,10 +11674,10 @@
         <v>1284</v>
       </c>
       <c r="F274" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G274" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11727,10 +11697,10 @@
         <v>1318</v>
       </c>
       <c r="F275" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="G275" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11750,10 +11720,10 @@
         <v>1275</v>
       </c>
       <c r="F276" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="G276" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11773,10 +11743,10 @@
         <v>1275</v>
       </c>
       <c r="F277" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G277" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11796,10 +11766,10 @@
         <v>1275</v>
       </c>
       <c r="F278" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="G278" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11819,10 +11789,10 @@
         <v>1275</v>
       </c>
       <c r="F279" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="G279" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11842,10 +11812,10 @@
         <v>1275</v>
       </c>
       <c r="F280" t="s">
-        <v>1535</v>
+        <v>1226</v>
       </c>
       <c r="G280" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11868,7 +11838,7 @@
         <v>984</v>
       </c>
       <c r="G281" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11888,10 +11858,10 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="G282" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11914,7 +11884,7 @@
         <v>1210</v>
       </c>
       <c r="G283" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11934,10 +11904,10 @@
         <v>1319</v>
       </c>
       <c r="F284" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="G284" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11957,10 +11927,10 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="G285" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11980,10 +11950,10 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="G286" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -12003,10 +11973,10 @@
         <v>1278</v>
       </c>
       <c r="F287" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="G287" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12026,10 +11996,10 @@
         <v>1275</v>
       </c>
       <c r="F288" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G288" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -12049,10 +12019,10 @@
         <v>1284</v>
       </c>
       <c r="F289" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G289" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -12072,10 +12042,10 @@
         <v>1320</v>
       </c>
       <c r="F290" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="G290" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -12095,10 +12065,10 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="G291" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -12118,10 +12088,10 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="G292" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -12141,10 +12111,10 @@
         <v>1297</v>
       </c>
       <c r="F293" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="G293" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -12164,10 +12134,10 @@
         <v>1284</v>
       </c>
       <c r="F294" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="G294" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -12190,7 +12160,7 @@
         <v>946</v>
       </c>
       <c r="G295" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -12210,10 +12180,10 @@
         <v>1275</v>
       </c>
       <c r="F296" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G296" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12236,7 +12206,7 @@
         <v>1340</v>
       </c>
       <c r="G297" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -12256,10 +12226,10 @@
         <v>1293</v>
       </c>
       <c r="F298" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="G298" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12279,10 +12249,10 @@
         <v>1275</v>
       </c>
       <c r="F299" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="G299" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12302,10 +12272,10 @@
         <v>1275</v>
       </c>
       <c r="F300" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="G300" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12325,10 +12295,10 @@
         <v>1284</v>
       </c>
       <c r="F301" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="G301" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12348,10 +12318,10 @@
         <v>1278</v>
       </c>
       <c r="F302" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="G302" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12374,7 +12344,7 @@
         <v>984</v>
       </c>
       <c r="G303" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -12397,7 +12367,7 @@
         <v>999</v>
       </c>
       <c r="G304" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -12420,7 +12390,7 @@
         <v>932</v>
       </c>
       <c r="G305" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12440,10 +12410,10 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="G306" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12466,7 +12436,7 @@
         <v>946</v>
       </c>
       <c r="G307" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12486,10 +12456,10 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G308" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12512,7 +12482,7 @@
         <v>1088</v>
       </c>
       <c r="G309" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12535,7 +12505,7 @@
         <v>1088</v>
       </c>
       <c r="G310" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12558,7 +12528,7 @@
         <v>967</v>
       </c>
       <c r="G311" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12578,10 +12548,10 @@
         <v>1284</v>
       </c>
       <c r="F312" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="G312" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12601,10 +12571,10 @@
         <v>1275</v>
       </c>
       <c r="F313" t="s">
-        <v>1552</v>
+        <v>946</v>
       </c>
       <c r="G313" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12627,7 +12597,7 @@
         <v>946</v>
       </c>
       <c r="G314" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12647,10 +12617,10 @@
         <v>1293</v>
       </c>
       <c r="F315" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="G315" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12670,10 +12640,10 @@
         <v>1275</v>
       </c>
       <c r="F316" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="G316" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12693,10 +12663,10 @@
         <v>1275</v>
       </c>
       <c r="F317" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G317" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12716,10 +12686,10 @@
         <v>1278</v>
       </c>
       <c r="F318" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G318" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12738,8 +12708,11 @@
       <c r="E319" t="s">
         <v>1284</v>
       </c>
+      <c r="F319" t="s">
+        <v>1170</v>
+      </c>
       <c r="G319" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12759,10 +12732,10 @@
         <v>1284</v>
       </c>
       <c r="F320" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="G320" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12782,10 +12755,10 @@
         <v>1314</v>
       </c>
       <c r="F321" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="G321" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12805,10 +12778,10 @@
         <v>1284</v>
       </c>
       <c r="F322" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="G322" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12828,10 +12801,10 @@
         <v>1309</v>
       </c>
       <c r="F323" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="G323" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12851,10 +12824,10 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G324" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12877,7 +12850,7 @@
         <v>946</v>
       </c>
       <c r="G325" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12900,7 +12873,7 @@
         <v>1088</v>
       </c>
       <c r="G326" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12920,10 +12893,10 @@
         <v>1275</v>
       </c>
       <c r="F327" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="G327" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12943,10 +12916,10 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="G328" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12966,10 +12939,10 @@
         <v>1322</v>
       </c>
       <c r="F329" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="G329" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12989,10 +12962,10 @@
         <v>1284</v>
       </c>
       <c r="F330" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G330" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -13012,10 +12985,10 @@
         <v>1296</v>
       </c>
       <c r="F331" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="G331" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -13035,10 +13008,10 @@
         <v>1284</v>
       </c>
       <c r="F332" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G332" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13058,10 +13031,10 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="G333" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13081,10 +13054,10 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="G334" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13104,10 +13077,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="G335" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13127,10 +13100,10 @@
         <v>1310</v>
       </c>
       <c r="F336" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="G336" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -13150,10 +13123,10 @@
         <v>1310</v>
       </c>
       <c r="F337" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="G337" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -13173,10 +13146,10 @@
         <v>1296</v>
       </c>
       <c r="F338" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="G338" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -13196,10 +13169,10 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="G339" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -13219,10 +13192,10 @@
         <v>1275</v>
       </c>
       <c r="F340" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="G340" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13242,10 +13215,10 @@
         <v>1316</v>
       </c>
       <c r="F341" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="G341" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -13265,10 +13238,10 @@
         <v>1275</v>
       </c>
       <c r="F342" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G342" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -13288,10 +13261,10 @@
         <v>1299</v>
       </c>
       <c r="F343" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="G343" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -13311,10 +13284,10 @@
         <v>1323</v>
       </c>
       <c r="F344" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="G344" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -13334,10 +13307,10 @@
         <v>1278</v>
       </c>
       <c r="F345" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="G345" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -13357,10 +13330,10 @@
         <v>1299</v>
       </c>
       <c r="F346" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="G346" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13380,10 +13353,10 @@
         <v>1275</v>
       </c>
       <c r="F347" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="G347" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -13406,7 +13379,7 @@
         <v>984</v>
       </c>
       <c r="G348" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -13429,7 +13402,7 @@
         <v>1088</v>
       </c>
       <c r="G349" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -13449,10 +13422,10 @@
         <v>1275</v>
       </c>
       <c r="F350" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G350" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -13472,10 +13445,10 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="G351" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -13495,10 +13468,10 @@
         <v>1321</v>
       </c>
       <c r="F352" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="G352" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13521,7 +13494,7 @@
         <v>967</v>
       </c>
       <c r="G353" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13541,10 +13514,10 @@
         <v>1275</v>
       </c>
       <c r="F354" t="s">
-        <v>1578</v>
+        <v>984</v>
       </c>
       <c r="G354" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13564,10 +13537,10 @@
         <v>1284</v>
       </c>
       <c r="F355" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="G355" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13590,7 +13563,7 @@
         <v>946</v>
       </c>
       <c r="G356" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13610,10 +13583,10 @@
         <v>1324</v>
       </c>
       <c r="F357" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="G357" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13633,10 +13606,10 @@
         <v>1275</v>
       </c>
       <c r="F358" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G358" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13656,10 +13629,10 @@
         <v>1297</v>
       </c>
       <c r="F359" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G359" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13682,7 +13655,7 @@
         <v>984</v>
       </c>
       <c r="G360" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13702,10 +13675,10 @@
         <v>1278</v>
       </c>
       <c r="F361" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G361" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13725,10 +13698,10 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G362" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13748,10 +13721,10 @@
         <v>1285</v>
       </c>
       <c r="F363" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="G363" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13771,10 +13744,10 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="G364" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13794,10 +13767,10 @@
         <v>1278</v>
       </c>
       <c r="F365" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="G365" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13817,10 +13790,10 @@
         <v>1293</v>
       </c>
       <c r="F366" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="G366" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13840,10 +13813,10 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G367" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13863,10 +13836,10 @@
         <v>1297</v>
       </c>
       <c r="F368" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="G368" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13889,7 +13862,7 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13908,11 +13881,8 @@
       <c r="E370" t="s">
         <v>1284</v>
       </c>
-      <c r="F370" t="s">
-        <v>1444</v>
-      </c>
       <c r="G370" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13932,10 +13902,10 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="G371" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13955,10 +13925,10 @@
         <v>1284</v>
       </c>
       <c r="F372" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="G372" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13978,10 +13948,10 @@
         <v>1284</v>
       </c>
       <c r="F373" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="G373" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -14001,7 +13971,7 @@
         <v>1284</v>
       </c>
       <c r="G374" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -14024,7 +13994,7 @@
         <v>1210</v>
       </c>
       <c r="G375" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -14044,10 +14014,10 @@
         <v>1278</v>
       </c>
       <c r="F376" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="G376" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -14067,10 +14037,10 @@
         <v>1278</v>
       </c>
       <c r="F377" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="G377" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -14090,10 +14060,10 @@
         <v>1284</v>
       </c>
       <c r="F378" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="G378" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -14113,10 +14083,10 @@
         <v>1325</v>
       </c>
       <c r="F379" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="G379" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -14136,10 +14106,10 @@
         <v>1284</v>
       </c>
       <c r="F380" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="G380" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -14159,10 +14129,10 @@
         <v>1321</v>
       </c>
       <c r="F381" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G381" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -14182,10 +14152,10 @@
         <v>1326</v>
       </c>
       <c r="F382" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="G382" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -14205,10 +14175,10 @@
         <v>1327</v>
       </c>
       <c r="F383" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="G383" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14228,10 +14198,10 @@
         <v>1328</v>
       </c>
       <c r="F384" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="G384" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -14251,10 +14221,10 @@
         <v>1278</v>
       </c>
       <c r="F385" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G385" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -14274,10 +14244,10 @@
         <v>1324</v>
       </c>
       <c r="F386" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="G386" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -14300,7 +14270,7 @@
         <v>995</v>
       </c>
       <c r="G387" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -14320,10 +14290,10 @@
         <v>1282</v>
       </c>
       <c r="F388" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="G388" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -14343,10 +14313,10 @@
         <v>1284</v>
       </c>
       <c r="F389" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G389" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -14366,10 +14336,10 @@
         <v>1294</v>
       </c>
       <c r="F390" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G390" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -14389,10 +14359,10 @@
         <v>1284</v>
       </c>
       <c r="F391" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="G391" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -14412,10 +14382,10 @@
         <v>1284</v>
       </c>
       <c r="F392" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="G392" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -14435,10 +14405,10 @@
         <v>1278</v>
       </c>
       <c r="F393" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="G393" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -14458,10 +14428,10 @@
         <v>1284</v>
       </c>
       <c r="F394" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="G394" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -14481,10 +14451,10 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="G395" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -14504,10 +14474,10 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="G396" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -14527,10 +14497,10 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="G397" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -14553,7 +14523,7 @@
         <v>1088</v>
       </c>
       <c r="G398" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -14573,10 +14543,10 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="G399" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -14596,10 +14566,10 @@
         <v>1303</v>
       </c>
       <c r="F400" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="G400" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14622,7 +14592,7 @@
         <v>1226</v>
       </c>
       <c r="G401" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14645,7 +14615,7 @@
         <v>1226</v>
       </c>
       <c r="G402" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14665,10 +14635,10 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="G403" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14688,10 +14658,10 @@
         <v>1278</v>
       </c>
       <c r="F404" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="G404" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14711,10 +14681,10 @@
         <v>1324</v>
       </c>
       <c r="F405" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="G405" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14737,7 +14707,7 @@
         <v>1088</v>
       </c>
       <c r="G406" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14757,10 +14727,10 @@
         <v>1293</v>
       </c>
       <c r="F407" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="G407" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14780,10 +14750,10 @@
         <v>1284</v>
       </c>
       <c r="F408" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G408" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14806,7 +14776,7 @@
         <v>967</v>
       </c>
       <c r="G409" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14829,7 +14799,7 @@
         <v>1233</v>
       </c>
       <c r="G410" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14849,10 +14819,10 @@
         <v>1323</v>
       </c>
       <c r="F411" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="G411" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14872,10 +14842,10 @@
         <v>1284</v>
       </c>
       <c r="F412" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G412" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14895,10 +14865,10 @@
         <v>1311</v>
       </c>
       <c r="F413" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G413" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14918,10 +14888,10 @@
         <v>1284</v>
       </c>
       <c r="F414" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="G414" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14941,10 +14911,10 @@
         <v>1329</v>
       </c>
       <c r="F415" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="G415" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14964,10 +14934,10 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="G416" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14987,10 +14957,10 @@
         <v>1284</v>
       </c>
       <c r="F417" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G417" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15010,10 +14980,10 @@
         <v>1330</v>
       </c>
       <c r="F418" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="G418" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -15033,10 +15003,10 @@
         <v>1294</v>
       </c>
       <c r="F419" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G419" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -15056,10 +15026,10 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="G420" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -15079,10 +15049,10 @@
         <v>1293</v>
       </c>
       <c r="F421" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="G421" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -15102,10 +15072,10 @@
         <v>1285</v>
       </c>
       <c r="F422" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G422" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -15128,7 +15098,7 @@
         <v>1064</v>
       </c>
       <c r="G423" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -15151,7 +15121,7 @@
         <v>1244</v>
       </c>
       <c r="G424" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -15171,10 +15141,10 @@
         <v>1297</v>
       </c>
       <c r="F425" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="G425" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -15194,10 +15164,10 @@
         <v>1329</v>
       </c>
       <c r="F426" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="G426" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -15217,10 +15187,10 @@
         <v>1284</v>
       </c>
       <c r="F427" t="s">
-        <v>1618</v>
+        <v>1210</v>
       </c>
       <c r="G427" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15240,10 +15210,10 @@
         <v>1278</v>
       </c>
       <c r="F428" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G428" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -15266,7 +15236,7 @@
         <v>1340</v>
       </c>
       <c r="G429" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15286,10 +15256,10 @@
         <v>1293</v>
       </c>
       <c r="F430" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="G430" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15309,10 +15279,10 @@
         <v>1296</v>
       </c>
       <c r="F431" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="G431" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15335,7 +15305,7 @@
         <v>1088</v>
       </c>
       <c r="G432" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15355,10 +15325,10 @@
         <v>1293</v>
       </c>
       <c r="F433" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="G433" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15378,10 +15348,10 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="G434" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15401,10 +15371,10 @@
         <v>1284</v>
       </c>
       <c r="F435" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="G435" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15427,7 +15397,7 @@
         <v>946</v>
       </c>
       <c r="G436" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15450,7 +15420,7 @@
         <v>1340</v>
       </c>
       <c r="G437" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15473,7 +15443,7 @@
         <v>1088</v>
       </c>
       <c r="G438" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15493,10 +15463,10 @@
         <v>1278</v>
       </c>
       <c r="F439" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="G439" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15516,10 +15486,10 @@
         <v>1278</v>
       </c>
       <c r="F440" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="G440" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15539,10 +15509,10 @@
         <v>1278</v>
       </c>
       <c r="F441" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="G441" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15562,10 +15532,10 @@
         <v>1278</v>
       </c>
       <c r="F442" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="G442" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15585,10 +15555,10 @@
         <v>1293</v>
       </c>
       <c r="F443" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="G443" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15608,10 +15578,10 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="G444" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15631,10 +15601,10 @@
         <v>1331</v>
       </c>
       <c r="F445" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="G445" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15654,10 +15624,10 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1631</v>
+        <v>1394</v>
       </c>
       <c r="G446" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15677,10 +15647,10 @@
         <v>1321</v>
       </c>
       <c r="F447" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="G447" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15700,10 +15670,10 @@
         <v>1284</v>
       </c>
       <c r="F448" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="G448" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15723,10 +15693,10 @@
         <v>1293</v>
       </c>
       <c r="F449" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G449" t="s">
         <v>1634</v>
-      </c>
-      <c r="G449" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15746,10 +15716,10 @@
         <v>1284</v>
       </c>
       <c r="F450" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G450" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15769,10 +15739,10 @@
         <v>1284</v>
       </c>
       <c r="F451" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="G451" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15795,7 +15765,7 @@
         <v>999</v>
       </c>
       <c r="G452" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15815,10 +15785,10 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="G453" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15838,10 +15808,10 @@
         <v>1332</v>
       </c>
       <c r="F454" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="G454" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15861,10 +15831,10 @@
         <v>1333</v>
       </c>
       <c r="F455" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="G455" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15884,10 +15854,10 @@
         <v>1278</v>
       </c>
       <c r="F456" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="G456" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15907,10 +15877,10 @@
         <v>1278</v>
       </c>
       <c r="F457" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="G457" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15933,7 +15903,7 @@
         <v>1210</v>
       </c>
       <c r="G458" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15953,10 +15923,10 @@
         <v>1293</v>
       </c>
       <c r="F459" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="G459" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15979,7 +15949,7 @@
         <v>946</v>
       </c>
       <c r="G460" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15999,10 +15969,10 @@
         <v>1321</v>
       </c>
       <c r="F461" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="G461" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -16025,7 +15995,7 @@
         <v>967</v>
       </c>
       <c r="G462" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -16045,10 +16015,10 @@
         <v>1335</v>
       </c>
       <c r="F463" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G463" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
